--- a/bots/crawl_ch/output/electronics_2022-09-04.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-09-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -1045,24 +1045,24 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7016089</t>
+          <t>6753975</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-buegeleisen-fv4961s0/p/7016089</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1072,12 +1072,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tefal</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>74.50</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1086,34 +1086,34 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6753975</t>
+          <t>6821480</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563</t>
+          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-dampfbuegeleisen-express-protect-sv9202s0-75-bar-durilium/p/6821480</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1123,12 +1123,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>Tefal</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>124.50</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1137,34 +1137,34 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
+          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 50% Aktion 124.50 Schweizer Franken statt 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6821480</t>
+          <t>6805078</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium)</t>
+          <t>Varta Premium Light F20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-dampfbuegeleisen-express-protect-sv9202s0-75-bar-durilium/p/6821480</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/varta-premium-light-f20/p/6805078</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1174,12 +1174,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tefal</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>124.50</t>
+          <t>39.95</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1188,17 +1188,17 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 50% Aktion 124.50 Schweizer Franken statt 249.00 Schweizer Franken</t>
+          <t>Varta Premium Light F20 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
@@ -2456,58 +2456,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-09-04 07:02:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>6805078</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Varta Premium Light F20</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/varta-premium-light-f20/p/6805078</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Varta</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>39.95</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Varta Premium Light F20 39.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>2022-09-04 07:02:13</t>
+          <t>2022-09-04 20:57:53</t>
         </is>
       </c>
     </row>
